--- a/Resultat New version user100-500 tour.xlsx
+++ b/Resultat New version user100-500 tour.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>nb_user=2</t>
   </si>
@@ -149,723 +149,6 @@
   <si>
     <t>nbPaquetsEnvoyesLoin MAXSNR</t>
   </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>33.55</t>
-  </si>
-  <si>
-    <t>17.84</t>
-  </si>
-  <si>
-    <t>6.77</t>
-  </si>
-  <si>
-    <t>6.87</t>
-  </si>
-  <si>
-    <t>8.31</t>
-  </si>
-  <si>
-    <t>8.38</t>
-  </si>
-  <si>
-    <t>97.68</t>
-  </si>
-  <si>
-    <t>9.31</t>
-  </si>
-  <si>
-    <t>9.46</t>
-  </si>
-  <si>
-    <t>9.62</t>
-  </si>
-  <si>
-    <t>99.66</t>
-  </si>
-  <si>
-    <t>99.72</t>
-  </si>
-  <si>
-    <t>9.80</t>
-  </si>
-  <si>
-    <t>99.73</t>
-  </si>
-  <si>
-    <t>9.82</t>
-  </si>
-  <si>
-    <t>99.78</t>
-  </si>
-  <si>
-    <t>9.84</t>
-  </si>
-  <si>
-    <t>99.69</t>
-  </si>
-  <si>
-    <t>99.80</t>
-  </si>
-  <si>
-    <t>9.86</t>
-  </si>
-  <si>
-    <t>99.75</t>
-  </si>
-  <si>
-    <t>9.87</t>
-  </si>
-  <si>
-    <t>99.77</t>
-  </si>
-  <si>
-    <t>9.88</t>
-  </si>
-  <si>
-    <t>99.81</t>
-  </si>
-  <si>
-    <t>9.89</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>9.91</t>
-  </si>
-  <si>
-    <t>9.92</t>
-  </si>
-  <si>
-    <t>99.82</t>
-  </si>
-  <si>
-    <t>9.93</t>
-  </si>
-  <si>
-    <t>99.84</t>
-  </si>
-  <si>
-    <t>9.94</t>
-  </si>
-  <si>
-    <t>99.85</t>
-  </si>
-  <si>
-    <t>96.49</t>
-  </si>
-  <si>
-    <t>7.99</t>
-  </si>
-  <si>
-    <t>8.70</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>97.53</t>
-  </si>
-  <si>
-    <t>2.37</t>
-  </si>
-  <si>
-    <t>97.66</t>
-  </si>
-  <si>
-    <t>2.34</t>
-  </si>
-  <si>
-    <t>97.70</t>
-  </si>
-  <si>
-    <t>97.76</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>9.96</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>97.81</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>9.97</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>9.98</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>6.49</t>
-  </si>
-  <si>
-    <t>11.99</t>
-  </si>
-  <si>
-    <t>6.92</t>
-  </si>
-  <si>
-    <t>5.07</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>19.29</t>
-  </si>
-  <si>
-    <t>6.09</t>
-  </si>
-  <si>
-    <t>26.62</t>
-  </si>
-  <si>
-    <t>12.39</t>
-  </si>
-  <si>
-    <t>14.23</t>
-  </si>
-  <si>
-    <t>6.16</t>
-  </si>
-  <si>
-    <t>33.52</t>
-  </si>
-  <si>
-    <t>15.52</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>6.30</t>
-  </si>
-  <si>
-    <t>40.33</t>
-  </si>
-  <si>
-    <t>17.78</t>
-  </si>
-  <si>
-    <t>22.55</t>
-  </si>
-  <si>
-    <t>6.37</t>
-  </si>
-  <si>
-    <t>46.75</t>
-  </si>
-  <si>
-    <t>20.55</t>
-  </si>
-  <si>
-    <t>26.20</t>
-  </si>
-  <si>
-    <t>53.07</t>
-  </si>
-  <si>
-    <t>23.36</t>
-  </si>
-  <si>
-    <t>29.71</t>
-  </si>
-  <si>
-    <t>6.57</t>
-  </si>
-  <si>
-    <t>59.75</t>
-  </si>
-  <si>
-    <t>26.17</t>
-  </si>
-  <si>
-    <t>33.58</t>
-  </si>
-  <si>
-    <t>6.67</t>
-  </si>
-  <si>
-    <t>65.06</t>
-  </si>
-  <si>
-    <t>28.64</t>
-  </si>
-  <si>
-    <t>36.42</t>
-  </si>
-  <si>
-    <t>71.85</t>
-  </si>
-  <si>
-    <t>31.32</t>
-  </si>
-  <si>
-    <t>40.54</t>
-  </si>
-  <si>
-    <t>76.75</t>
-  </si>
-  <si>
-    <t>43.21</t>
-  </si>
-  <si>
-    <t>6.97</t>
-  </si>
-  <si>
-    <t>82.14</t>
-  </si>
-  <si>
-    <t>36.70</t>
-  </si>
-  <si>
-    <t>45.45</t>
-  </si>
-  <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>86.21</t>
-  </si>
-  <si>
-    <t>38.75</t>
-  </si>
-  <si>
-    <t>47.46</t>
-  </si>
-  <si>
-    <t>7.26</t>
-  </si>
-  <si>
-    <t>90.40</t>
-  </si>
-  <si>
-    <t>41.66</t>
-  </si>
-  <si>
-    <t>48.75</t>
-  </si>
-  <si>
-    <t>7.51</t>
-  </si>
-  <si>
-    <t>91.44</t>
-  </si>
-  <si>
-    <t>44.07</t>
-  </si>
-  <si>
-    <t>47.37</t>
-  </si>
-  <si>
-    <t>7.64</t>
-  </si>
-  <si>
-    <t>92.44</t>
-  </si>
-  <si>
-    <t>46.76</t>
-  </si>
-  <si>
-    <t>45.68</t>
-  </si>
-  <si>
-    <t>7.74</t>
-  </si>
-  <si>
-    <t>92.90</t>
-  </si>
-  <si>
-    <t>48.84</t>
-  </si>
-  <si>
-    <t>44.06</t>
-  </si>
-  <si>
-    <t>7.82</t>
-  </si>
-  <si>
-    <t>93.59</t>
-  </si>
-  <si>
-    <t>50.94</t>
-  </si>
-  <si>
-    <t>42.65</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>94.05</t>
-  </si>
-  <si>
-    <t>53.51</t>
-  </si>
-  <si>
-    <t>94.52</t>
-  </si>
-  <si>
-    <t>56.77</t>
-  </si>
-  <si>
-    <t>37.75</t>
-  </si>
-  <si>
-    <t>8.09</t>
-  </si>
-  <si>
-    <t>95.05</t>
-  </si>
-  <si>
-    <t>58.68</t>
-  </si>
-  <si>
-    <t>36.37</t>
-  </si>
-  <si>
-    <t>8.15</t>
-  </si>
-  <si>
-    <t>95.38</t>
-  </si>
-  <si>
-    <t>61.35</t>
-  </si>
-  <si>
-    <t>34.03</t>
-  </si>
-  <si>
-    <t>8.24</t>
-  </si>
-  <si>
-    <t>95.87</t>
-  </si>
-  <si>
-    <t>63.51</t>
-  </si>
-  <si>
-    <t>32.36</t>
-  </si>
-  <si>
-    <t>96.12</t>
-  </si>
-  <si>
-    <t>65.44</t>
-  </si>
-  <si>
-    <t>30.68</t>
-  </si>
-  <si>
-    <t>68.88</t>
-  </si>
-  <si>
-    <t>27.61</t>
-  </si>
-  <si>
-    <t>8.47</t>
-  </si>
-  <si>
-    <t>96.77</t>
-  </si>
-  <si>
-    <t>70.25</t>
-  </si>
-  <si>
-    <t>26.51</t>
-  </si>
-  <si>
-    <t>8.53</t>
-  </si>
-  <si>
-    <t>97.16</t>
-  </si>
-  <si>
-    <t>73.43</t>
-  </si>
-  <si>
-    <t>23.73</t>
-  </si>
-  <si>
-    <t>8.62</t>
-  </si>
-  <si>
-    <t>97.38</t>
-  </si>
-  <si>
-    <t>76.14</t>
-  </si>
-  <si>
-    <t>21.24</t>
-  </si>
-  <si>
-    <t>78.06</t>
-  </si>
-  <si>
-    <t>19.70</t>
-  </si>
-  <si>
-    <t>8.76</t>
-  </si>
-  <si>
-    <t>97.96</t>
-  </si>
-  <si>
-    <t>80.12</t>
-  </si>
-  <si>
-    <t>8.83</t>
-  </si>
-  <si>
-    <t>98.19</t>
-  </si>
-  <si>
-    <t>82.33</t>
-  </si>
-  <si>
-    <t>15.86</t>
-  </si>
-  <si>
-    <t>8.91</t>
-  </si>
-  <si>
-    <t>98.41</t>
-  </si>
-  <si>
-    <t>84.17</t>
-  </si>
-  <si>
-    <t>14.25</t>
-  </si>
-  <si>
-    <t>8.97</t>
-  </si>
-  <si>
-    <t>98.53</t>
-  </si>
-  <si>
-    <t>85.75</t>
-  </si>
-  <si>
-    <t>12.78</t>
-  </si>
-  <si>
-    <t>9.04</t>
-  </si>
-  <si>
-    <t>98.91</t>
-  </si>
-  <si>
-    <t>88.60</t>
-  </si>
-  <si>
-    <t>10.32</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>99.08</t>
-  </si>
-  <si>
-    <t>91.11</t>
-  </si>
-  <si>
-    <t>7.96</t>
-  </si>
-  <si>
-    <t>9.26</t>
-  </si>
-  <si>
-    <t>99.09</t>
-  </si>
-  <si>
-    <t>92.06</t>
-  </si>
-  <si>
-    <t>7.02</t>
-  </si>
-  <si>
-    <t>99.32</t>
-  </si>
-  <si>
-    <t>93.96</t>
-  </si>
-  <si>
-    <t>5.36</t>
-  </si>
-  <si>
-    <t>99.37</t>
-  </si>
-  <si>
-    <t>94.88</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>9.53</t>
-  </si>
-  <si>
-    <t>99.52</t>
-  </si>
-  <si>
-    <t>95.64</t>
-  </si>
-  <si>
-    <t>3.87</t>
-  </si>
-  <si>
-    <t>99.61</t>
-  </si>
-  <si>
-    <t>96.59</t>
-  </si>
-  <si>
-    <t>3.02</t>
-  </si>
-  <si>
-    <t>9.75</t>
-  </si>
-  <si>
-    <t>97.08</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>97.18</t>
-  </si>
-  <si>
-    <t>99.70</t>
-  </si>
-  <si>
-    <t>97.30</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>97.32</t>
-  </si>
-  <si>
-    <t>2.43</t>
-  </si>
-  <si>
-    <t>97.37</t>
-  </si>
-  <si>
-    <t>97.31</t>
-  </si>
-  <si>
-    <t>97.44</t>
-  </si>
-  <si>
-    <t>97.58</t>
-  </si>
-  <si>
-    <t>99.74</t>
-  </si>
-  <si>
-    <t>97.54</t>
-  </si>
-  <si>
-    <t>97.57</t>
-  </si>
-  <si>
-    <t>97.49</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>99.79</t>
-  </si>
-  <si>
-    <t>97.62</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>97.71</t>
-  </si>
-  <si>
-    <t>97.59</t>
-  </si>
-  <si>
-    <t>97.69</t>
-  </si>
-  <si>
-    <t>99.83</t>
-  </si>
-  <si>
-    <t>97.75</t>
-  </si>
-  <si>
-    <t>97.73</t>
-  </si>
-  <si>
-    <t>97.65</t>
-  </si>
-  <si>
-    <t>97.74</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>99.86</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
 </sst>
 </file>
 
@@ -1939,11 +1222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202261632"/>
-        <c:axId val="202263168"/>
+        <c:axId val="179979392"/>
+        <c:axId val="179980928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202261632"/>
+        <c:axId val="179979392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1236,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202263168"/>
+        <c:crossAx val="179980928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +1244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202263168"/>
+        <c:axId val="179980928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,7 +1260,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202261632"/>
+        <c:crossAx val="179979392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2029,6 +1312,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2782,229 +2066,229 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>33.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>40.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>46.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>53.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>59.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>65.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>71.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>76.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>82.14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>86.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>90.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>91.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>92.44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>92.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>93.59</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>94.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>94.52</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>95.05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>95.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>95.87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>96.12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>96.49</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>96.77</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>97.16</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>97.38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>97.76</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>97.96</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>98.19</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>98.41</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>98.53</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>98.91</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>99.08</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>99.32</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>99.37</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>99.52</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>99.61</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>99.69</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>99.72</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>99.7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>99.73</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>99.66</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>99.78</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>99.78</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>99.74</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>99.78</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>99.8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>99.79</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>99.82</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>99.82</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>99.82</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>99.81</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>99.85</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>99.83</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>99.85</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>99.81</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>99.81</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>99.83</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>99.83</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>99.86</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>99.84</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>99.77</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>99.86</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>99.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3021,11 +2305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202910720"/>
-        <c:axId val="202912512"/>
+        <c:axId val="199048192"/>
+        <c:axId val="199054080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202910720"/>
+        <c:axId val="199048192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +2319,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202912512"/>
+        <c:crossAx val="199054080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3043,7 +2327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202912512"/>
+        <c:axId val="199054080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,13 +2343,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202910720"/>
+        <c:crossAx val="199048192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3110,6 +2395,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3863,229 +3149,229 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>12.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>17.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>20.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>23.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>26.17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>28.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>31.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>33.549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>38.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>41.66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>44.07</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>46.76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>48.84</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>50.94</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>53.51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>56.77</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>58.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>61.35</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>63.51</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>65.44</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>68.88</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>70.25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>73.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>76.14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>78.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>80.12</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>82.33</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>84.17</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>85.75</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>88.6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>91.11</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>92.06</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>93.96</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>94.88</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>95.64</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>96.59</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>97.08</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>97.18</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>97.3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>97.32</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>97.37</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>97.31</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>97.44</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>97.58</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>97.54</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>97.57</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>97.49</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>97.53</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>97.62</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>97.7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>97.71</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>97.62</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>97.59</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>97.69</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>97.62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>97.66</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>97.73</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>97.65</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>97.74</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>97.73</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>97.68</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>97.69</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>97.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>97.81</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>97.73</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>97.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,11 +3388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202937472"/>
-        <c:axId val="202939008"/>
+        <c:axId val="199083136"/>
+        <c:axId val="199084672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202937472"/>
+        <c:axId val="199083136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +3402,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202939008"/>
+        <c:crossAx val="199084672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4124,7 +3410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202939008"/>
+        <c:axId val="199084672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,7 +3426,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202937472"/>
+        <c:crossAx val="199083136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4201,6 +3487,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4957,226 +4244,226 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>14.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>33.58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>36.42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>40.54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>43.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>45.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>47.46</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>48.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>47.37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>45.68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>44.06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>42.65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>40.54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>36.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>34.03</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>32.36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>30.68</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>26.51</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>23.73</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>21.24</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>19.7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>17.84</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>15.86</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>12.78</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>10.32</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>7.96</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>7.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>5.36</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>2.12</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5193,11 +4480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202984448"/>
-        <c:axId val="202986240"/>
+        <c:axId val="199195648"/>
+        <c:axId val="199201536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202984448"/>
+        <c:axId val="199195648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5207,7 +4494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202986240"/>
+        <c:crossAx val="199201536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5215,7 +4502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202986240"/>
+        <c:axId val="199201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5231,13 +4518,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202984448"/>
+        <c:crossAx val="199195648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5282,6 +4570,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6035,229 +5324,229 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.77</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7.26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7.51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>7.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>7.99</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8.09</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8.15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8.24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>8.31</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>8.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>8.4700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>8.5299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>8.76</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>8.83</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>8.91</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>8.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>9.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>9.15</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>9.26</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>9.31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>9.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>9.5299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>9.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>9.82</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>9.84</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>9.86</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>9.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>9.8800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>9.89</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>9.91</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>9.91</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>9.93</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>9.93</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>9.94</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>9.94</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6274,11 +5563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203027968"/>
-        <c:axId val="203029504"/>
+        <c:axId val="199235072"/>
+        <c:axId val="199236608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203027968"/>
+        <c:axId val="199235072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6288,7 +5577,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203029504"/>
+        <c:crossAx val="199236608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6296,7 +5585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203029504"/>
+        <c:axId val="199236608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6312,13 +5601,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203027968"/>
+        <c:crossAx val="199235072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6363,6 +5653,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6887,11 +6178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203046912"/>
-        <c:axId val="203048448"/>
+        <c:axId val="199258112"/>
+        <c:axId val="199259648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203046912"/>
+        <c:axId val="199258112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6901,7 +6192,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203048448"/>
+        <c:crossAx val="199259648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6909,9 +6200,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203048448"/>
+        <c:axId val="199259648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6925,13 +6217,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203046912"/>
+        <c:crossAx val="199258112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6981,6 +6274,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7973,11 +7267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203086080"/>
-        <c:axId val="203087872"/>
+        <c:axId val="199362816"/>
+        <c:axId val="199364608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203086080"/>
+        <c:axId val="199362816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7987,7 +7281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203087872"/>
+        <c:crossAx val="199364608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7995,7 +7289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203087872"/>
+        <c:axId val="199364608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8011,13 +7305,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203086080"/>
+        <c:crossAx val="199362816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8067,6 +7362,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9059,11 +8355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203191040"/>
-        <c:axId val="203192576"/>
+        <c:axId val="199394048"/>
+        <c:axId val="199395584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203191040"/>
+        <c:axId val="199394048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9073,7 +8369,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203192576"/>
+        <c:crossAx val="199395584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9081,7 +8377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203192576"/>
+        <c:axId val="199395584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9097,7 +8393,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203191040"/>
+        <c:crossAx val="199394048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10151,11 +9447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203213824"/>
-        <c:axId val="203240192"/>
+        <c:axId val="199425024"/>
+        <c:axId val="199500544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203213824"/>
+        <c:axId val="199425024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10165,7 +9461,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203240192"/>
+        <c:crossAx val="199500544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10173,7 +9469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203240192"/>
+        <c:axId val="199500544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10189,7 +9485,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203213824"/>
+        <c:crossAx val="199425024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11234,11 +10530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203269632"/>
-        <c:axId val="203271168"/>
+        <c:axId val="199542272"/>
+        <c:axId val="199543808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203269632"/>
+        <c:axId val="199542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11248,7 +10544,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203271168"/>
+        <c:crossAx val="199543808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11256,7 +10552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203271168"/>
+        <c:axId val="199543808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11272,7 +10568,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203269632"/>
+        <c:crossAx val="199542272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12325,11 +11621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202399744"/>
-        <c:axId val="202401280"/>
+        <c:axId val="199598080"/>
+        <c:axId val="199599616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202399744"/>
+        <c:axId val="199598080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12339,7 +11635,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202401280"/>
+        <c:crossAx val="199599616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12347,7 +11643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202401280"/>
+        <c:axId val="199599616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12363,7 +11659,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202399744"/>
+        <c:crossAx val="199598080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13402,11 +12698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202292608"/>
-        <c:axId val="183833728"/>
+        <c:axId val="180002176"/>
+        <c:axId val="180122752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202292608"/>
+        <c:axId val="180002176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13416,7 +12712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183833728"/>
+        <c:crossAx val="180122752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13424,7 +12720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183833728"/>
+        <c:axId val="180122752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13440,7 +12736,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202292608"/>
+        <c:crossAx val="180002176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13987,11 +13283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202434048"/>
-        <c:axId val="202435584"/>
+        <c:axId val="199624192"/>
+        <c:axId val="199625728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202434048"/>
+        <c:axId val="199624192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14001,7 +13297,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202435584"/>
+        <c:crossAx val="199625728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14009,7 +13305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202435584"/>
+        <c:axId val="199625728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14025,7 +13321,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202434048"/>
+        <c:crossAx val="199624192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14557,11 +13853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="207341824"/>
-        <c:axId val="211156992"/>
+        <c:axId val="199650688"/>
+        <c:axId val="199652480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207341824"/>
+        <c:axId val="199650688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14571,7 +13867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211156992"/>
+        <c:crossAx val="199652480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14579,9 +13875,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211156992"/>
+        <c:axId val="199652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14595,7 +13892,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="207341824"/>
+        <c:crossAx val="199650688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15640,11 +14937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183854976"/>
-        <c:axId val="183856512"/>
+        <c:axId val="198707072"/>
+        <c:axId val="198708608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183854976"/>
+        <c:axId val="198707072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15654,7 +14951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183856512"/>
+        <c:crossAx val="198708608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15662,7 +14959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183856512"/>
+        <c:axId val="198708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15678,7 +14975,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183854976"/>
+        <c:crossAx val="198707072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16723,11 +16020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201019776"/>
-        <c:axId val="201021312"/>
+        <c:axId val="198758784"/>
+        <c:axId val="198760320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201019776"/>
+        <c:axId val="198758784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16737,7 +16034,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201021312"/>
+        <c:crossAx val="198760320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16745,9 +16042,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201021312"/>
+        <c:axId val="198760320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -16761,7 +16059,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="201019776"/>
+        <c:crossAx val="198758784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17811,11 +17109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201333760"/>
-        <c:axId val="202601216"/>
+        <c:axId val="198865664"/>
+        <c:axId val="198867200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201333760"/>
+        <c:axId val="198865664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17825,7 +17123,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202601216"/>
+        <c:crossAx val="198867200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17833,9 +17131,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202601216"/>
+        <c:axId val="198867200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17849,7 +17148,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="201333760"/>
+        <c:crossAx val="198865664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18903,11 +18202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202614656"/>
-        <c:axId val="202616192"/>
+        <c:axId val="198892928"/>
+        <c:axId val="198976640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202614656"/>
+        <c:axId val="198892928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18917,7 +18216,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202616192"/>
+        <c:crossAx val="198976640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18925,9 +18224,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202616192"/>
+        <c:axId val="198976640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -18941,7 +18241,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202614656"/>
+        <c:crossAx val="198892928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19986,11 +19286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202723712"/>
-        <c:axId val="202725248"/>
+        <c:axId val="199001984"/>
+        <c:axId val="199003520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202723712"/>
+        <c:axId val="199001984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20000,7 +19300,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202725248"/>
+        <c:crossAx val="199003520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20008,7 +19308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202725248"/>
+        <c:axId val="199003520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20024,7 +19324,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202723712"/>
+        <c:crossAx val="199001984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21069,11 +20369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202758784"/>
-        <c:axId val="202846592"/>
+        <c:axId val="199123712"/>
+        <c:axId val="199125248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202758784"/>
+        <c:axId val="199123712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21083,7 +20383,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202846592"/>
+        <c:crossAx val="199125248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21091,7 +20391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202846592"/>
+        <c:axId val="199125248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21107,7 +20407,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202758784"/>
+        <c:crossAx val="199123712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21913,7 +21213,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="75"/>
                 <c:pt idx="0">
-                  <c:v>-2147483648</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -22152,11 +21452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202875648"/>
-        <c:axId val="202877184"/>
+        <c:axId val="199136384"/>
+        <c:axId val="199137920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202875648"/>
+        <c:axId val="199136384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22166,7 +21466,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202877184"/>
+        <c:crossAx val="199137920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22174,7 +21474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202877184"/>
+        <c:axId val="199137920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22190,7 +21490,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="202875648"/>
+        <c:crossAx val="199136384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22816,16 +22116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23136,8 +22436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q75" workbookViewId="0">
-      <selection activeCell="AF98" sqref="AF98"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="AF50" sqref="AF50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23378,19 +22678,19 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>-2147483648</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>3.48</v>
+      </c>
+      <c r="AH3">
+        <v>3.48</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>6.49</v>
       </c>
       <c r="AK3">
         <v>17650</v>
@@ -23509,17 +22809,17 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>110</v>
+      <c r="AG4">
+        <v>11.99</v>
+      </c>
+      <c r="AH4">
+        <v>6.92</v>
+      </c>
+      <c r="AI4">
+        <v>5.07</v>
+      </c>
+      <c r="AJ4">
+        <v>5.99</v>
       </c>
       <c r="AK4">
         <v>18041</v>
@@ -23638,17 +22938,17 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>112</v>
+      <c r="AG5">
+        <v>19.29</v>
+      </c>
+      <c r="AH5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AI5">
+        <v>9.5</v>
+      </c>
+      <c r="AJ5">
+        <v>6.09</v>
       </c>
       <c r="AK5">
         <v>19533</v>
@@ -23767,17 +23067,17 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>116</v>
+      <c r="AG6">
+        <v>26.62</v>
+      </c>
+      <c r="AH6">
+        <v>12.39</v>
+      </c>
+      <c r="AI6">
+        <v>14.23</v>
+      </c>
+      <c r="AJ6">
+        <v>6.16</v>
       </c>
       <c r="AK6">
         <v>17087</v>
@@ -23896,17 +23196,17 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>120</v>
+      <c r="AG7">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="AH7">
+        <v>15.52</v>
+      </c>
+      <c r="AI7">
+        <v>18</v>
+      </c>
+      <c r="AJ7">
+        <v>6.3</v>
       </c>
       <c r="AK7">
         <v>19104</v>
@@ -24025,17 +23325,17 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>124</v>
+      <c r="AG8">
+        <v>40.33</v>
+      </c>
+      <c r="AH8">
+        <v>17.78</v>
+      </c>
+      <c r="AI8">
+        <v>22.55</v>
+      </c>
+      <c r="AJ8">
+        <v>6.37</v>
       </c>
       <c r="AK8">
         <v>18150</v>
@@ -24154,17 +23454,17 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>106</v>
+      <c r="AG9">
+        <v>46.75</v>
+      </c>
+      <c r="AH9">
+        <v>20.55</v>
+      </c>
+      <c r="AI9">
+        <v>26.2</v>
+      </c>
+      <c r="AJ9">
+        <v>6.49</v>
       </c>
       <c r="AK9">
         <v>19819</v>
@@ -24283,17 +23583,17 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>131</v>
+      <c r="AG10">
+        <v>53.07</v>
+      </c>
+      <c r="AH10">
+        <v>23.36</v>
+      </c>
+      <c r="AI10">
+        <v>29.71</v>
+      </c>
+      <c r="AJ10">
+        <v>6.57</v>
       </c>
       <c r="AK10">
         <v>18451</v>
@@ -24412,17 +23712,17 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>135</v>
+      <c r="AG11">
+        <v>59.75</v>
+      </c>
+      <c r="AH11">
+        <v>26.17</v>
+      </c>
+      <c r="AI11">
+        <v>33.58</v>
+      </c>
+      <c r="AJ11">
+        <v>6.67</v>
       </c>
       <c r="AK11">
         <v>20223</v>
@@ -24541,17 +23841,17 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>47</v>
+      <c r="AG12">
+        <v>65.06</v>
+      </c>
+      <c r="AH12">
+        <v>28.64</v>
+      </c>
+      <c r="AI12">
+        <v>36.42</v>
+      </c>
+      <c r="AJ12">
+        <v>6.77</v>
       </c>
       <c r="AK12">
         <v>19808</v>
@@ -24670,17 +23970,17 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>48</v>
+      <c r="AG13">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="AH13">
+        <v>31.32</v>
+      </c>
+      <c r="AI13">
+        <v>40.54</v>
+      </c>
+      <c r="AJ13">
+        <v>6.87</v>
       </c>
       <c r="AK13">
         <v>19346</v>
@@ -24799,17 +24099,17 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>144</v>
+      <c r="AG14">
+        <v>76.75</v>
+      </c>
+      <c r="AH14">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="AI14">
+        <v>43.21</v>
+      </c>
+      <c r="AJ14">
+        <v>6.97</v>
       </c>
       <c r="AK14">
         <v>19288</v>
@@ -24928,17 +24228,17 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>148</v>
+      <c r="AG15">
+        <v>82.14</v>
+      </c>
+      <c r="AH15">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AI15">
+        <v>45.45</v>
+      </c>
+      <c r="AJ15">
+        <v>7.1</v>
       </c>
       <c r="AK15">
         <v>18944</v>
@@ -25057,17 +24357,17 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>152</v>
+      <c r="AG16">
+        <v>86.21</v>
+      </c>
+      <c r="AH16">
+        <v>38.75</v>
+      </c>
+      <c r="AI16">
+        <v>47.46</v>
+      </c>
+      <c r="AJ16">
+        <v>7.26</v>
       </c>
       <c r="AK16">
         <v>20022</v>
@@ -25186,17 +24486,17 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>156</v>
+      <c r="AG17">
+        <v>90.4</v>
+      </c>
+      <c r="AH17">
+        <v>41.66</v>
+      </c>
+      <c r="AI17">
+        <v>48.75</v>
+      </c>
+      <c r="AJ17">
+        <v>7.51</v>
       </c>
       <c r="AK17">
         <v>20994</v>
@@ -25315,17 +24615,17 @@
       <c r="AF18">
         <v>23</v>
       </c>
-      <c r="AG18" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>160</v>
+      <c r="AG18">
+        <v>91.44</v>
+      </c>
+      <c r="AH18">
+        <v>44.07</v>
+      </c>
+      <c r="AI18">
+        <v>47.37</v>
+      </c>
+      <c r="AJ18">
+        <v>7.64</v>
       </c>
       <c r="AK18">
         <v>47348</v>
@@ -25444,17 +24744,17 @@
       <c r="AF19">
         <v>45</v>
       </c>
-      <c r="AG19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>164</v>
+      <c r="AG19">
+        <v>92.44</v>
+      </c>
+      <c r="AH19">
+        <v>46.76</v>
+      </c>
+      <c r="AI19">
+        <v>45.68</v>
+      </c>
+      <c r="AJ19">
+        <v>7.74</v>
       </c>
       <c r="AK19">
         <v>66294</v>
@@ -25573,17 +24873,17 @@
       <c r="AF20">
         <v>59</v>
       </c>
-      <c r="AG20" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>168</v>
+      <c r="AG20">
+        <v>92.9</v>
+      </c>
+      <c r="AH20">
+        <v>48.84</v>
+      </c>
+      <c r="AI20">
+        <v>44.06</v>
+      </c>
+      <c r="AJ20">
+        <v>7.82</v>
       </c>
       <c r="AK20">
         <v>86114</v>
@@ -25702,17 +25002,17 @@
       <c r="AF21">
         <v>71</v>
       </c>
-      <c r="AG21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>172</v>
+      <c r="AG21">
+        <v>93.59</v>
+      </c>
+      <c r="AH21">
+        <v>50.94</v>
+      </c>
+      <c r="AI21">
+        <v>42.65</v>
+      </c>
+      <c r="AJ21">
+        <v>7.9</v>
       </c>
       <c r="AK21">
         <v>114969</v>
@@ -25831,17 +25131,17 @@
       <c r="AF22">
         <v>78</v>
       </c>
-      <c r="AG22" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>80</v>
+      <c r="AG22">
+        <v>94.05</v>
+      </c>
+      <c r="AH22">
+        <v>53.51</v>
+      </c>
+      <c r="AI22">
+        <v>40.54</v>
+      </c>
+      <c r="AJ22">
+        <v>7.99</v>
       </c>
       <c r="AK22">
         <v>152777</v>
@@ -25960,17 +25260,17 @@
       <c r="AF23">
         <v>80</v>
       </c>
-      <c r="AG23" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>178</v>
+      <c r="AG23">
+        <v>94.52</v>
+      </c>
+      <c r="AH23">
+        <v>56.77</v>
+      </c>
+      <c r="AI23">
+        <v>37.75</v>
+      </c>
+      <c r="AJ23">
+        <v>8.09</v>
       </c>
       <c r="AK23">
         <v>174803</v>
@@ -26089,17 +25389,17 @@
       <c r="AF24">
         <v>83</v>
       </c>
-      <c r="AG24" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>182</v>
+      <c r="AG24">
+        <v>95.05</v>
+      </c>
+      <c r="AH24">
+        <v>58.68</v>
+      </c>
+      <c r="AI24">
+        <v>36.369999999999997</v>
+      </c>
+      <c r="AJ24">
+        <v>8.15</v>
       </c>
       <c r="AK24">
         <v>206680</v>
@@ -26218,17 +25518,17 @@
       <c r="AF25">
         <v>85</v>
       </c>
-      <c r="AG25" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>186</v>
+      <c r="AG25">
+        <v>95.38</v>
+      </c>
+      <c r="AH25">
+        <v>61.35</v>
+      </c>
+      <c r="AI25">
+        <v>34.03</v>
+      </c>
+      <c r="AJ25">
+        <v>8.24</v>
       </c>
       <c r="AK25">
         <v>238508</v>
@@ -26347,17 +25647,17 @@
       <c r="AF26">
         <v>84</v>
       </c>
-      <c r="AG26" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>49</v>
+      <c r="AG26">
+        <v>95.87</v>
+      </c>
+      <c r="AH26">
+        <v>63.51</v>
+      </c>
+      <c r="AI26">
+        <v>32.36</v>
+      </c>
+      <c r="AJ26">
+        <v>8.31</v>
       </c>
       <c r="AK26">
         <v>253225</v>
@@ -26476,17 +25776,17 @@
       <c r="AF27">
         <v>87</v>
       </c>
-      <c r="AG27" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>50</v>
+      <c r="AG27">
+        <v>96.12</v>
+      </c>
+      <c r="AH27">
+        <v>65.44</v>
+      </c>
+      <c r="AI27">
+        <v>30.68</v>
+      </c>
+      <c r="AJ27">
+        <v>8.3800000000000008</v>
       </c>
       <c r="AK27">
         <v>289634</v>
@@ -26605,17 +25905,17 @@
       <c r="AF28">
         <v>87</v>
       </c>
-      <c r="AG28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>195</v>
+      <c r="AG28">
+        <v>96.49</v>
+      </c>
+      <c r="AH28">
+        <v>68.88</v>
+      </c>
+      <c r="AI28">
+        <v>27.61</v>
+      </c>
+      <c r="AJ28">
+        <v>8.4700000000000006</v>
       </c>
       <c r="AK28">
         <v>316619</v>
@@ -26734,17 +26034,17 @@
       <c r="AF29">
         <v>86</v>
       </c>
-      <c r="AG29" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>199</v>
+      <c r="AG29">
+        <v>96.77</v>
+      </c>
+      <c r="AH29">
+        <v>70.25</v>
+      </c>
+      <c r="AI29">
+        <v>26.51</v>
+      </c>
+      <c r="AJ29">
+        <v>8.5299999999999994</v>
       </c>
       <c r="AK29">
         <v>342998</v>
@@ -26863,17 +26163,17 @@
       <c r="AF30">
         <v>87</v>
       </c>
-      <c r="AG30" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>203</v>
+      <c r="AG30">
+        <v>97.16</v>
+      </c>
+      <c r="AH30">
+        <v>73.430000000000007</v>
+      </c>
+      <c r="AI30">
+        <v>23.73</v>
+      </c>
+      <c r="AJ30">
+        <v>8.6199999999999992</v>
       </c>
       <c r="AK30">
         <v>379635</v>
@@ -26992,17 +26292,17 @@
       <c r="AF31">
         <v>89</v>
       </c>
-      <c r="AG31" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>81</v>
+      <c r="AG31">
+        <v>97.38</v>
+      </c>
+      <c r="AH31">
+        <v>76.14</v>
+      </c>
+      <c r="AI31">
+        <v>21.24</v>
+      </c>
+      <c r="AJ31">
+        <v>8.6999999999999993</v>
       </c>
       <c r="AK31">
         <v>409063</v>
@@ -27121,17 +26421,17 @@
       <c r="AF32">
         <v>89</v>
       </c>
-      <c r="AG32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>209</v>
+      <c r="AG32">
+        <v>97.76</v>
+      </c>
+      <c r="AH32">
+        <v>78.06</v>
+      </c>
+      <c r="AI32">
+        <v>19.7</v>
+      </c>
+      <c r="AJ32">
+        <v>8.76</v>
       </c>
       <c r="AK32">
         <v>446574</v>
@@ -27250,17 +26550,17 @@
       <c r="AF33">
         <v>91</v>
       </c>
-      <c r="AG33" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>212</v>
+      <c r="AG33">
+        <v>97.96</v>
+      </c>
+      <c r="AH33">
+        <v>80.12</v>
+      </c>
+      <c r="AI33">
+        <v>17.84</v>
+      </c>
+      <c r="AJ33">
+        <v>8.83</v>
       </c>
       <c r="AK33">
         <v>458478</v>
@@ -27379,17 +26679,17 @@
       <c r="AF34">
         <v>89</v>
       </c>
-      <c r="AG34" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>214</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>216</v>
+      <c r="AG34">
+        <v>98.19</v>
+      </c>
+      <c r="AH34">
+        <v>82.33</v>
+      </c>
+      <c r="AI34">
+        <v>15.86</v>
+      </c>
+      <c r="AJ34">
+        <v>8.91</v>
       </c>
       <c r="AK34">
         <v>497340</v>
@@ -27508,17 +26808,17 @@
       <c r="AF35">
         <v>91</v>
       </c>
-      <c r="AG35" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>220</v>
+      <c r="AG35">
+        <v>98.41</v>
+      </c>
+      <c r="AH35">
+        <v>84.17</v>
+      </c>
+      <c r="AI35">
+        <v>14.25</v>
+      </c>
+      <c r="AJ35">
+        <v>8.9700000000000006</v>
       </c>
       <c r="AK35">
         <v>519634</v>
@@ -27637,17 +26937,17 @@
       <c r="AF36">
         <v>90</v>
       </c>
-      <c r="AG36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>224</v>
+      <c r="AG36">
+        <v>98.53</v>
+      </c>
+      <c r="AH36">
+        <v>85.75</v>
+      </c>
+      <c r="AI36">
+        <v>12.78</v>
+      </c>
+      <c r="AJ36">
+        <v>9.0399999999999991</v>
       </c>
       <c r="AK36">
         <v>552051</v>
@@ -27766,17 +27066,17 @@
       <c r="AF37">
         <v>91</v>
       </c>
-      <c r="AG37" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>228</v>
+      <c r="AG37">
+        <v>98.91</v>
+      </c>
+      <c r="AH37">
+        <v>88.6</v>
+      </c>
+      <c r="AI37">
+        <v>10.32</v>
+      </c>
+      <c r="AJ37">
+        <v>9.15</v>
       </c>
       <c r="AK37">
         <v>592320</v>
@@ -27895,17 +27195,17 @@
       <c r="AF38">
         <v>91</v>
       </c>
-      <c r="AG38" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>232</v>
+      <c r="AG38">
+        <v>99.08</v>
+      </c>
+      <c r="AH38">
+        <v>91.11</v>
+      </c>
+      <c r="AI38">
+        <v>7.96</v>
+      </c>
+      <c r="AJ38">
+        <v>9.26</v>
       </c>
       <c r="AK38">
         <v>616092</v>
@@ -28024,17 +27324,17 @@
       <c r="AF39">
         <v>92</v>
       </c>
-      <c r="AG39" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>52</v>
+      <c r="AG39">
+        <v>99.09</v>
+      </c>
+      <c r="AH39">
+        <v>92.06</v>
+      </c>
+      <c r="AI39">
+        <v>7.02</v>
+      </c>
+      <c r="AJ39">
+        <v>9.31</v>
       </c>
       <c r="AK39">
         <v>641219</v>
@@ -28153,17 +27453,17 @@
       <c r="AF40">
         <v>91</v>
       </c>
-      <c r="AG40" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>53</v>
+      <c r="AG40">
+        <v>99.32</v>
+      </c>
+      <c r="AH40">
+        <v>93.96</v>
+      </c>
+      <c r="AI40">
+        <v>5.36</v>
+      </c>
+      <c r="AJ40">
+        <v>9.4600000000000009</v>
       </c>
       <c r="AK40">
         <v>678542</v>
@@ -28282,17 +27582,17 @@
       <c r="AF41">
         <v>89</v>
       </c>
-      <c r="AG41" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>242</v>
+      <c r="AG41">
+        <v>99.37</v>
+      </c>
+      <c r="AH41">
+        <v>94.88</v>
+      </c>
+      <c r="AI41">
+        <v>4.5</v>
+      </c>
+      <c r="AJ41">
+        <v>9.5299999999999994</v>
       </c>
       <c r="AK41">
         <v>693851</v>
@@ -28411,17 +27711,17 @@
       <c r="AF42">
         <v>89</v>
       </c>
-      <c r="AG42" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>54</v>
+      <c r="AG42">
+        <v>99.52</v>
+      </c>
+      <c r="AH42">
+        <v>95.64</v>
+      </c>
+      <c r="AI42">
+        <v>3.87</v>
+      </c>
+      <c r="AJ42">
+        <v>9.6199999999999992</v>
       </c>
       <c r="AK42">
         <v>728189</v>
@@ -28540,17 +27840,17 @@
       <c r="AF43">
         <v>89</v>
       </c>
-      <c r="AG43" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>249</v>
+      <c r="AG43">
+        <v>99.61</v>
+      </c>
+      <c r="AH43">
+        <v>96.59</v>
+      </c>
+      <c r="AI43">
+        <v>3.02</v>
+      </c>
+      <c r="AJ43">
+        <v>9.75</v>
       </c>
       <c r="AK43">
         <v>753421</v>
@@ -28669,17 +27969,17 @@
       <c r="AF44">
         <v>89</v>
       </c>
-      <c r="AG44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>59</v>
+      <c r="AG44">
+        <v>99.69</v>
+      </c>
+      <c r="AH44">
+        <v>97.08</v>
+      </c>
+      <c r="AI44">
+        <v>2.6</v>
+      </c>
+      <c r="AJ44">
+        <v>9.82</v>
       </c>
       <c r="AK44">
         <v>789050</v>
@@ -28798,17 +28098,17 @@
       <c r="AF45">
         <v>90</v>
       </c>
-      <c r="AG45" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>61</v>
+      <c r="AG45">
+        <v>99.72</v>
+      </c>
+      <c r="AH45">
+        <v>97.18</v>
+      </c>
+      <c r="AI45">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AJ45">
+        <v>9.84</v>
       </c>
       <c r="AK45">
         <v>829581</v>
@@ -28927,17 +28227,17 @@
       <c r="AF46">
         <v>89</v>
       </c>
-      <c r="AG46" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>64</v>
+      <c r="AG46">
+        <v>99.7</v>
+      </c>
+      <c r="AH46">
+        <v>97.3</v>
+      </c>
+      <c r="AI46">
+        <v>2.4</v>
+      </c>
+      <c r="AJ46">
+        <v>9.86</v>
       </c>
       <c r="AK46">
         <v>850256</v>
@@ -29056,17 +28356,17 @@
       <c r="AF47">
         <v>92</v>
       </c>
-      <c r="AG47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>66</v>
+      <c r="AG47">
+        <v>99.75</v>
+      </c>
+      <c r="AH47">
+        <v>97.32</v>
+      </c>
+      <c r="AI47">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AJ47">
+        <v>9.8699999999999992</v>
       </c>
       <c r="AK47">
         <v>880356</v>
@@ -29185,17 +28485,17 @@
       <c r="AF48">
         <v>91</v>
       </c>
-      <c r="AG48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>68</v>
+      <c r="AG48">
+        <v>99.73</v>
+      </c>
+      <c r="AH48">
+        <v>97.37</v>
+      </c>
+      <c r="AI48">
+        <v>2.37</v>
+      </c>
+      <c r="AJ48">
+        <v>9.8800000000000008</v>
       </c>
       <c r="AK48">
         <v>936975</v>
@@ -29314,17 +28614,17 @@
       <c r="AF49">
         <v>91</v>
       </c>
-      <c r="AG49" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>70</v>
+      <c r="AG49">
+        <v>99.66</v>
+      </c>
+      <c r="AH49">
+        <v>97.31</v>
+      </c>
+      <c r="AI49">
+        <v>2.34</v>
+      </c>
+      <c r="AJ49">
+        <v>9.89</v>
       </c>
       <c r="AK49">
         <v>971087</v>
@@ -29443,17 +28743,17 @@
       <c r="AF50">
         <v>91</v>
       </c>
-      <c r="AG50" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>71</v>
+      <c r="AG50">
+        <v>99.78</v>
+      </c>
+      <c r="AH50">
+        <v>97.44</v>
+      </c>
+      <c r="AI50">
+        <v>2.34</v>
+      </c>
+      <c r="AJ50">
+        <v>9.9</v>
       </c>
       <c r="AK50">
         <v>989341</v>
@@ -29572,17 +28872,17 @@
       <c r="AF51">
         <v>92</v>
       </c>
-      <c r="AG51" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>72</v>
+      <c r="AG51">
+        <v>99.78</v>
+      </c>
+      <c r="AH51">
+        <v>97.58</v>
+      </c>
+      <c r="AI51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ51">
+        <v>9.91</v>
       </c>
       <c r="AK51">
         <v>1059576</v>
@@ -29701,17 +29001,17 @@
       <c r="AF52">
         <v>95</v>
       </c>
-      <c r="AG52" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>72</v>
+      <c r="AG52">
+        <v>99.74</v>
+      </c>
+      <c r="AH52">
+        <v>97.54</v>
+      </c>
+      <c r="AI52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ52">
+        <v>9.91</v>
       </c>
       <c r="AK52">
         <v>1089332</v>
@@ -29830,17 +29130,17 @@
       <c r="AF53">
         <v>93</v>
       </c>
-      <c r="AG53" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>73</v>
+      <c r="AG53">
+        <v>99.75</v>
+      </c>
+      <c r="AH53">
+        <v>97.57</v>
+      </c>
+      <c r="AI53">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AJ53">
+        <v>9.92</v>
       </c>
       <c r="AK53">
         <v>1105983</v>
@@ -29959,17 +29259,17 @@
       <c r="AF54">
         <v>92</v>
       </c>
-      <c r="AG54" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>73</v>
+      <c r="AG54">
+        <v>99.78</v>
+      </c>
+      <c r="AH54">
+        <v>97.49</v>
+      </c>
+      <c r="AI54">
+        <v>2.29</v>
+      </c>
+      <c r="AJ54">
+        <v>9.92</v>
       </c>
       <c r="AK54">
         <v>1139795</v>
@@ -30088,17 +29388,17 @@
       <c r="AF55">
         <v>93</v>
       </c>
-      <c r="AG55" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>75</v>
+      <c r="AG55">
+        <v>99.8</v>
+      </c>
+      <c r="AH55">
+        <v>97.53</v>
+      </c>
+      <c r="AI55">
+        <v>2.27</v>
+      </c>
+      <c r="AJ55">
+        <v>9.93</v>
       </c>
       <c r="AK55">
         <v>1191577</v>
@@ -30217,17 +29517,17 @@
       <c r="AF56">
         <v>94</v>
       </c>
-      <c r="AG56" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>75</v>
+      <c r="AG56">
+        <v>99.79</v>
+      </c>
+      <c r="AH56">
+        <v>97.62</v>
+      </c>
+      <c r="AI56">
+        <v>2.17</v>
+      </c>
+      <c r="AJ56">
+        <v>9.93</v>
       </c>
       <c r="AK56">
         <v>1198388</v>
@@ -30346,17 +29646,17 @@
       <c r="AF57">
         <v>95</v>
       </c>
-      <c r="AG57" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>270</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>77</v>
+      <c r="AG57">
+        <v>99.82</v>
+      </c>
+      <c r="AH57">
+        <v>97.7</v>
+      </c>
+      <c r="AI57">
+        <v>2.12</v>
+      </c>
+      <c r="AJ57">
+        <v>9.94</v>
       </c>
       <c r="AK57">
         <v>1262008</v>
@@ -30475,17 +29775,17 @@
       <c r="AF58">
         <v>94</v>
       </c>
-      <c r="AG58" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>77</v>
+      <c r="AG58">
+        <v>99.82</v>
+      </c>
+      <c r="AH58">
+        <v>97.71</v>
+      </c>
+      <c r="AI58">
+        <v>2.11</v>
+      </c>
+      <c r="AJ58">
+        <v>9.94</v>
       </c>
       <c r="AK58">
         <v>1290940</v>
@@ -30604,17 +29904,17 @@
       <c r="AF59">
         <v>93</v>
       </c>
-      <c r="AG59" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>90</v>
+      <c r="AG59">
+        <v>99.82</v>
+      </c>
+      <c r="AH59">
+        <v>97.62</v>
+      </c>
+      <c r="AI59">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ59">
+        <v>9.9499999999999993</v>
       </c>
       <c r="AK59">
         <v>1347760</v>
@@ -30733,17 +30033,17 @@
       <c r="AF60">
         <v>94</v>
       </c>
-      <c r="AG60" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>90</v>
+      <c r="AG60">
+        <v>99.75</v>
+      </c>
+      <c r="AH60">
+        <v>97.59</v>
+      </c>
+      <c r="AI60">
+        <v>2.16</v>
+      </c>
+      <c r="AJ60">
+        <v>9.9499999999999993</v>
       </c>
       <c r="AK60">
         <v>1366788</v>
@@ -30862,17 +30162,17 @@
       <c r="AF61">
         <v>94</v>
       </c>
-      <c r="AG61" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>90</v>
+      <c r="AG61">
+        <v>99.84</v>
+      </c>
+      <c r="AH61">
+        <v>97.69</v>
+      </c>
+      <c r="AI61">
+        <v>2.15</v>
+      </c>
+      <c r="AJ61">
+        <v>9.9499999999999993</v>
       </c>
       <c r="AK61">
         <v>1416358</v>
@@ -30991,17 +30291,17 @@
       <c r="AF62">
         <v>95</v>
       </c>
-      <c r="AG62" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>90</v>
+      <c r="AG62">
+        <v>99.81</v>
+      </c>
+      <c r="AH62">
+        <v>97.62</v>
+      </c>
+      <c r="AI62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AJ62">
+        <v>9.9499999999999993</v>
       </c>
       <c r="AK62">
         <v>1449492</v>
@@ -31120,17 +30420,17 @@
       <c r="AF63">
         <v>95</v>
       </c>
-      <c r="AG63" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>93</v>
+      <c r="AG63">
+        <v>99.85</v>
+      </c>
+      <c r="AH63">
+        <v>97.66</v>
+      </c>
+      <c r="AI63">
+        <v>2.19</v>
+      </c>
+      <c r="AJ63">
+        <v>9.9600000000000009</v>
       </c>
       <c r="AK63">
         <v>1497271</v>
@@ -31249,17 +30549,17 @@
       <c r="AF64">
         <v>96</v>
       </c>
-      <c r="AG64" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>93</v>
+      <c r="AG64">
+        <v>99.83</v>
+      </c>
+      <c r="AH64">
+        <v>97.75</v>
+      </c>
+      <c r="AI64">
+        <v>2.08</v>
+      </c>
+      <c r="AJ64">
+        <v>9.9600000000000009</v>
       </c>
       <c r="AK64">
         <v>1509709</v>
@@ -31378,17 +30678,17 @@
       <c r="AF65">
         <v>94</v>
       </c>
-      <c r="AG65" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>93</v>
+      <c r="AG65">
+        <v>99.85</v>
+      </c>
+      <c r="AH65">
+        <v>97.73</v>
+      </c>
+      <c r="AI65">
+        <v>2.11</v>
+      </c>
+      <c r="AJ65">
+        <v>9.9600000000000009</v>
       </c>
       <c r="AK65">
         <v>1568122</v>
@@ -31507,17 +30807,17 @@
       <c r="AF66">
         <v>96</v>
       </c>
-      <c r="AG66" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>277</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>98</v>
+      <c r="AG66">
+        <v>99.84</v>
+      </c>
+      <c r="AH66">
+        <v>97.65</v>
+      </c>
+      <c r="AI66">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AJ66">
+        <v>9.9700000000000006</v>
       </c>
       <c r="AK66">
         <v>1604049</v>
@@ -31636,17 +30936,17 @@
       <c r="AF67">
         <v>96</v>
       </c>
-      <c r="AG67" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>98</v>
+      <c r="AG67">
+        <v>99.84</v>
+      </c>
+      <c r="AH67">
+        <v>97.75</v>
+      </c>
+      <c r="AI67">
+        <v>2.09</v>
+      </c>
+      <c r="AJ67">
+        <v>9.9700000000000006</v>
       </c>
       <c r="AK67">
         <v>1638553</v>
@@ -31765,17 +31065,17 @@
       <c r="AF68">
         <v>96</v>
       </c>
-      <c r="AG68" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>98</v>
+      <c r="AG68">
+        <v>99.81</v>
+      </c>
+      <c r="AH68">
+        <v>97.74</v>
+      </c>
+      <c r="AI68">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="AJ68">
+        <v>9.9700000000000006</v>
       </c>
       <c r="AK68">
         <v>1672655</v>
@@ -31894,17 +31194,17 @@
       <c r="AF69">
         <v>95</v>
       </c>
-      <c r="AG69" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>98</v>
+      <c r="AG69">
+        <v>99.81</v>
+      </c>
+      <c r="AH69">
+        <v>97.73</v>
+      </c>
+      <c r="AI69">
+        <v>2.08</v>
+      </c>
+      <c r="AJ69">
+        <v>9.9700000000000006</v>
       </c>
       <c r="AK69">
         <v>1712470</v>
@@ -32023,17 +31323,17 @@
       <c r="AF70">
         <v>95</v>
       </c>
-      <c r="AG70" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>98</v>
+      <c r="AG70">
+        <v>99.83</v>
+      </c>
+      <c r="AH70">
+        <v>97.68</v>
+      </c>
+      <c r="AI70">
+        <v>2.15</v>
+      </c>
+      <c r="AJ70">
+        <v>9.9700000000000006</v>
       </c>
       <c r="AK70">
         <v>1750582</v>
@@ -32152,17 +31452,17 @@
       <c r="AF71">
         <v>96</v>
       </c>
-      <c r="AG71" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>101</v>
+      <c r="AG71">
+        <v>99.83</v>
+      </c>
+      <c r="AH71">
+        <v>97.69</v>
+      </c>
+      <c r="AI71">
+        <v>2.14</v>
+      </c>
+      <c r="AJ71">
+        <v>9.98</v>
       </c>
       <c r="AK71">
         <v>1779576</v>
@@ -32281,17 +31581,17 @@
       <c r="AF72">
         <v>95</v>
       </c>
-      <c r="AG72" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI72" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>101</v>
+      <c r="AG72">
+        <v>99.84</v>
+      </c>
+      <c r="AH72">
+        <v>97.75</v>
+      </c>
+      <c r="AI72">
+        <v>2.09</v>
+      </c>
+      <c r="AJ72">
+        <v>9.98</v>
       </c>
       <c r="AK72">
         <v>1826087</v>
@@ -32410,17 +31710,17 @@
       <c r="AF73">
         <v>94</v>
       </c>
-      <c r="AG73" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>101</v>
+      <c r="AG73">
+        <v>99.86</v>
+      </c>
+      <c r="AH73">
+        <v>97.7</v>
+      </c>
+      <c r="AI73">
+        <v>2.16</v>
+      </c>
+      <c r="AJ73">
+        <v>9.98</v>
       </c>
       <c r="AK73">
         <v>1849994</v>
@@ -32539,17 +31839,17 @@
       <c r="AF74">
         <v>96</v>
       </c>
-      <c r="AG74" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>101</v>
+      <c r="AG74">
+        <v>99.84</v>
+      </c>
+      <c r="AH74">
+        <v>97.81</v>
+      </c>
+      <c r="AI74">
+        <v>2.04</v>
+      </c>
+      <c r="AJ74">
+        <v>9.98</v>
       </c>
       <c r="AK74">
         <v>1874129</v>
@@ -32668,17 +31968,17 @@
       <c r="AF75">
         <v>97</v>
       </c>
-      <c r="AG75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH75" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>101</v>
+      <c r="AG75">
+        <v>99.77</v>
+      </c>
+      <c r="AH75">
+        <v>97.73</v>
+      </c>
+      <c r="AI75">
+        <v>2.04</v>
+      </c>
+      <c r="AJ75">
+        <v>9.98</v>
       </c>
       <c r="AK75">
         <v>1931572</v>
@@ -32797,17 +32097,17 @@
       <c r="AF76">
         <v>95</v>
       </c>
-      <c r="AG76" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>101</v>
+      <c r="AG76">
+        <v>99.86</v>
+      </c>
+      <c r="AH76">
+        <v>97.75</v>
+      </c>
+      <c r="AI76">
+        <v>2.11</v>
+      </c>
+      <c r="AJ76">
+        <v>9.98</v>
       </c>
       <c r="AK76">
         <v>1955081</v>
@@ -32926,17 +32226,17 @@
       <c r="AF77">
         <v>96</v>
       </c>
-      <c r="AG77" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>101</v>
+      <c r="AG77">
+        <v>99.83</v>
+      </c>
+      <c r="AH77">
+        <v>97.73</v>
+      </c>
+      <c r="AI77">
+        <v>2.1</v>
+      </c>
+      <c r="AJ77">
+        <v>9.98</v>
       </c>
       <c r="AK77">
         <v>2023474</v>
